--- a/BoilerPlate.xlsx
+++ b/BoilerPlate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgpkh\ReportStrcutureAutomationExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D8F796-8397-4C0A-8154-73C059D5B314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D24E51B-5A9F-4699-AC40-C0EF9E3E056D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data &amp; Chart" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
     <sheet name="Execution Summary" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet_Temp" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>ATIRApay - Acura Dealer Rewards Card_Accessibility Testing</t>
   </si>
@@ -50,72 +63,6 @@
     <t>Scope</t>
   </si>
   <si>
-    <t>Pages / Flows</t>
-  </si>
-  <si>
-    <t>Execution Status</t>
-  </si>
-  <si>
-    <t>Conformance Level Wise Distribution</t>
-  </si>
-  <si>
-    <t>Accessibility Issue Type Distribution</t>
-  </si>
-  <si>
-    <t>Imace Wise Distribution</t>
-  </si>
-  <si>
-    <t>Window</t>
-  </si>
-  <si>
-    <t>macOS</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>iOS</t>
-  </si>
-  <si>
-    <t>Level A</t>
-  </si>
-  <si>
-    <t>Level AA</t>
-  </si>
-  <si>
-    <t>Keyboard Navigation</t>
-  </si>
-  <si>
-    <t>Color Contrast</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Zoom</t>
-  </si>
-  <si>
-    <t>HTML Validator</t>
-  </si>
-  <si>
-    <t>Screen Reader</t>
-  </si>
-  <si>
-    <t>Other A11y</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -153,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -252,51 +199,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -379,14 +281,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -395,49 +299,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -461,63 +326,49 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="cell_style" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -840,7 +691,7 @@
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -850,76 +701,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="74.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="2:3" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:3">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13"/>
-    </row>
-    <row r="4" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
+    <row r="3" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="5" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="2:3" ht="14.4" customHeight="1">
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="16"/>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="2:3" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="17"/>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="14" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="18" t="s">
+    <row r="7" spans="2:3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="2:3" ht="30.9" customHeight="1" thickBot="1">
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="14" spans="2:3" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="15" spans="2:3">
+      <c r="B15" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="19"/>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="16"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B5:C5"/>
@@ -936,126 +787,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:XEE18"/>
+  <dimension ref="XEE1:XEE18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
     <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" customWidth="1"/>
+    <col min="16" max="18" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18 16359:16359" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:18 16359:16359" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="21"/>
-    </row>
-    <row r="3" spans="1:18 16359:16359" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18 16359:16359" x14ac:dyDescent="0.3">
-      <c r="XEE4" s="4"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="16359:16359" ht="15.75" customHeight="1"/>
+    <row r="4" spans="16359:16359">
+      <c r="XEE4" s="1"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:E2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1067,63 +831,63 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="59" style="5" customWidth="1"/>
-    <col min="3" max="3" width="53.109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="47.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="51" style="5" customWidth="1"/>
-    <col min="6" max="6" width="52" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="8.6640625" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="8.6640625" style="5"/>
+    <col min="1" max="1" width="5.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="59" style="2" customWidth="1"/>
+    <col min="3" max="3" width="53.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="51" style="2" customWidth="1"/>
+    <col min="6" max="6" width="52" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="6" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:12" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
